--- a/config/RoSys.xlsx
+++ b/config/RoSys.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="240">
   <si>
     <t>id</t>
   </si>
@@ -40,6 +40,9 @@
     <t>in_use</t>
   </si>
   <si>
+    <t xml:space="preserve"> is_forward</t>
+  </si>
+  <si>
     <t>width</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
   </si>
   <si>
     <t>正在使用(开发人员使用)</t>
+  </si>
+  <si>
+    <t>敬请期待(开发人员使用)</t>
   </si>
   <si>
     <t xml:space="preserve"> 宽度(开发人员使用)</t>
@@ -805,12 +811,12 @@
     <col customWidth="1" min="6" max="6" width="19.0"/>
     <col customWidth="1" min="7" max="7" width="41.43"/>
     <col customWidth="1" min="8" max="8" width="27.71"/>
-    <col customWidth="1" min="9" max="9" width="21.43"/>
-    <col customWidth="1" min="10" max="10" width="19.86"/>
-    <col customWidth="1" min="11" max="11" width="19.71"/>
-    <col customWidth="1" min="12" max="12" width="18.71"/>
-    <col customWidth="1" min="13" max="13" width="21.0"/>
-    <col customWidth="1" min="14" max="14" width="23.29"/>
+    <col customWidth="1" min="9" max="10" width="21.43"/>
+    <col customWidth="1" min="11" max="11" width="19.86"/>
+    <col customWidth="1" min="12" max="12" width="19.71"/>
+    <col customWidth="1" min="13" max="13" width="18.71"/>
+    <col customWidth="1" min="14" max="14" width="21.0"/>
+    <col customWidth="1" min="15" max="15" width="23.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -856,49 +862,55 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -906,28 +918,31 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1">
         <v>1.0</v>
@@ -936,56 +951,62 @@
         <v>1.0</v>
       </c>
       <c r="J4" s="1">
-        <v>999.0</v>
+        <v>0.0</v>
       </c>
       <c r="K4" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="L4" s="1">
         <v>586.0</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>33</v>
+      <c r="M4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>586.0</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>586.0</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>33</v>
+      <c r="O5" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H6" s="1">
         <v>2.0</v>
@@ -993,16 +1014,17 @@
       <c r="I6" s="1">
         <v>1.0</v>
       </c>
+      <c r="J6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H7" s="1">
         <v>2.0</v>
@@ -1010,16 +1032,17 @@
       <c r="I7" s="1">
         <v>1.0</v>
       </c>
+      <c r="J7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H8" s="1">
         <v>2.0</v>
@@ -1027,1315 +1050,1376 @@
       <c r="I8" s="1">
         <v>1.0</v>
       </c>
+      <c r="J8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1">
         <v>1.0</v>
       </c>
-      <c r="J9" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J9" s="1"/>
       <c r="K9" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L9" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
         <v>1.0</v>
       </c>
-      <c r="J10" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J10" s="1"/>
       <c r="K10" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L10" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1">
         <v>1.0</v>
       </c>
-      <c r="J11" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J11" s="1"/>
       <c r="K11" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L11" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1">
         <v>1.0</v>
       </c>
-      <c r="J12" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J12" s="1"/>
       <c r="K12" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L12" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1">
         <v>1.0</v>
       </c>
-      <c r="J13" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J13" s="1"/>
       <c r="K13" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L13" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1">
         <v>1.0</v>
       </c>
-      <c r="J14" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J14" s="1"/>
       <c r="K14" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L14" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1">
         <v>1.0</v>
       </c>
-      <c r="J15" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J15" s="1"/>
       <c r="K15" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L15" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1">
         <v>1.0</v>
       </c>
-      <c r="J16" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J16" s="1"/>
       <c r="K16" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L16" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1">
         <v>1.0</v>
       </c>
-      <c r="J17" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J17" s="1"/>
       <c r="K17" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L17" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1">
         <v>1.0</v>
       </c>
-      <c r="J18" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J18" s="1"/>
       <c r="K18" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L18" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1">
         <v>1.0</v>
       </c>
-      <c r="J19" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J19" s="1"/>
       <c r="K19" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L19" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1">
         <v>1.0</v>
       </c>
-      <c r="J20" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J20" s="1"/>
       <c r="K20" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L20" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1">
         <v>1.0</v>
       </c>
-      <c r="J21" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J21" s="1"/>
       <c r="K21" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L21" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1">
         <v>1.0</v>
       </c>
-      <c r="J22" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J22" s="1"/>
       <c r="K22" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L22" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1">
         <v>1.0</v>
       </c>
-      <c r="J23" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J23" s="1"/>
       <c r="K23" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L23" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1">
         <v>1.0</v>
       </c>
-      <c r="J24" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J24" s="1"/>
       <c r="K24" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L24" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1">
         <v>1.0</v>
       </c>
-      <c r="J25" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J25" s="1"/>
       <c r="K25" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L25" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1">
         <v>1.0</v>
       </c>
-      <c r="J26" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J26" s="1"/>
       <c r="K26" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L26" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1">
         <v>1.0</v>
       </c>
-      <c r="J27" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J27" s="1"/>
       <c r="K27" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L27" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1">
         <v>1.0</v>
       </c>
-      <c r="J28" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J28" s="1"/>
       <c r="K28" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L28" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1">
         <v>1.0</v>
       </c>
-      <c r="J29" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J29" s="1"/>
       <c r="K29" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L29" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1">
         <v>1.0</v>
       </c>
-      <c r="J30" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J30" s="1"/>
       <c r="K30" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L30" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1">
         <v>1.0</v>
       </c>
-      <c r="J31" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J31" s="1"/>
       <c r="K31" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L31" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1">
         <v>1.0</v>
       </c>
-      <c r="J32" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J32" s="1"/>
       <c r="K32" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L32" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1">
         <v>1.0</v>
       </c>
-      <c r="J33" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J33" s="1"/>
       <c r="K33" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L33" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1">
         <v>1.0</v>
       </c>
-      <c r="J34" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J34" s="1"/>
       <c r="K34" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L34" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1">
         <v>1.0</v>
       </c>
-      <c r="J35" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J35" s="1"/>
       <c r="K35" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L35" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1">
         <v>1.0</v>
       </c>
-      <c r="J36" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J36" s="1"/>
       <c r="K36" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L36" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1">
         <v>1.0</v>
       </c>
-      <c r="J37" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J37" s="1"/>
       <c r="K37" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L37" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1">
         <v>1.0</v>
       </c>
-      <c r="J38" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J38" s="1"/>
       <c r="K38" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L38" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1">
         <v>1.0</v>
       </c>
-      <c r="J39" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J39" s="1"/>
       <c r="K39" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L39" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1">
         <v>1.0</v>
       </c>
-      <c r="J40" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J40" s="1"/>
       <c r="K40" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L40" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1">
         <v>1.0</v>
       </c>
-      <c r="J41" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J41" s="1"/>
       <c r="K41" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L41" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1">
         <v>1.0</v>
       </c>
-      <c r="J42" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J42" s="1"/>
       <c r="K42" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L42" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1">
         <v>1.0</v>
       </c>
-      <c r="J43" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J43" s="1"/>
       <c r="K43" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L43" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1">
         <v>1.0</v>
       </c>
-      <c r="J44" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J44" s="1"/>
       <c r="K44" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L44" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1">
         <v>1.0</v>
       </c>
-      <c r="J45" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J45" s="1"/>
       <c r="K45" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L45" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1">
         <v>1.0</v>
       </c>
-      <c r="J46" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J46" s="1"/>
       <c r="K46" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L46" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1">
         <v>1.0</v>
       </c>
-      <c r="J47" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J47" s="1"/>
       <c r="K47" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L47" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1">
         <v>1.0</v>
       </c>
-      <c r="J48" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J48" s="1"/>
       <c r="K48" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L48" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1">
         <v>1.0</v>
       </c>
-      <c r="J49" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J49" s="1"/>
       <c r="K49" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L49" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1">
         <v>1.0</v>
       </c>
-      <c r="J50" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J50" s="1"/>
       <c r="K50" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L50" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1">
         <v>1.0</v>
       </c>
-      <c r="J51" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J51" s="1"/>
       <c r="K51" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L51" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1">
         <v>1.0</v>
       </c>
-      <c r="J52" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J52" s="1"/>
       <c r="K52" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L52" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1">
         <v>1.0</v>
       </c>
-      <c r="J53" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J53" s="1"/>
       <c r="K53" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L53" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1">
         <v>1.0</v>
       </c>
-      <c r="J54" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J54" s="1"/>
       <c r="K54" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L54" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1">
         <v>1.0</v>
       </c>
-      <c r="J55" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J55" s="1"/>
       <c r="K55" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L55" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1">
         <v>1.0</v>
       </c>
-      <c r="J56" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J56" s="1"/>
       <c r="K56" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L56" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1">
         <v>1.0</v>
       </c>
-      <c r="J57" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J57" s="1"/>
       <c r="K57" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L57" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1">
         <v>1.0</v>
       </c>
-      <c r="J58" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J58" s="1"/>
       <c r="K58" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L58" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1">
         <v>1.0</v>
       </c>
-      <c r="J59" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J59" s="1"/>
       <c r="K59" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L59" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1">
         <v>1.0</v>
       </c>
-      <c r="J60" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J60" s="1"/>
       <c r="K60" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L60" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1">
         <v>1.0</v>
       </c>
-      <c r="J61" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J61" s="1"/>
       <c r="K61" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L61" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1">
         <v>1.0</v>
       </c>
-      <c r="J62" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J62" s="1"/>
       <c r="K62" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L62" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1">
         <v>1.0</v>
       </c>
-      <c r="J63" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J63" s="1"/>
       <c r="K63" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L63" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1">
         <v>1.0</v>
       </c>
-      <c r="J64" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J64" s="1"/>
       <c r="K64" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L64" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1">
         <v>1.0</v>
       </c>
-      <c r="J65" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J65" s="1"/>
       <c r="K65" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L65" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1">
         <v>1.0</v>
       </c>
-      <c r="J66" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J66" s="1"/>
       <c r="K66" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L66" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1">
         <v>1.0</v>
       </c>
-      <c r="J67" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J67" s="1"/>
       <c r="K67" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L67" s="1">
         <v>601.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1">
         <v>1.0</v>
       </c>
-      <c r="J68" s="1">
-        <v>288.0</v>
-      </c>
+      <c r="J68" s="1"/>
       <c r="K68" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L68" s="1">
         <v>601.0</v>
       </c>
     </row>
